--- a/page/user/tmp/data_user.xlsx
+++ b/page/user/tmp/data_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB9EFD0-E2E3-4A43-9608-101E0BF507A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F28BA38-9C60-4BA3-B8DA-5F0BD5CE0814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1316">
   <si>
     <t>Nama</t>
   </si>
@@ -4386,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:A657"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4423,8 +4423,8 @@
       <c r="B2" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1254</v>
+      <c r="C2" s="3">
+        <v>1.9790226200902099E+17</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1254</v>
